--- a/data/trans_orig/IP16B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{819800EC-7B54-4481-BA28-3F3563116B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{312EDF22-C040-45FD-B3F8-BC05D97EE313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9C0779FB-D776-4CA9-911D-D7A8E6277655}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC4EBB42-7698-4860-B3C1-E43CDFA90ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <t>97,16%</t>
   </si>
   <si>
-    <t>90,52%</t>
+    <t>91,52%</t>
   </si>
   <si>
     <t>99,33%</t>
@@ -110,16 +110,16 @@
     <t>98,72%</t>
   </si>
   <si>
-    <t>92,36%</t>
+    <t>93,24%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>2,84%</t>
@@ -128,22 +128,22 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>9,48%</t>
+    <t>8,48%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>7,64%</t>
+    <t>6,76%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -155,163 +155,163 @@
     <t>96,86%</t>
   </si>
   <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
     <t>98,87%</t>
   </si>
   <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>3,66%</t>
   </si>
   <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -726,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761E54EB-E6F2-4225-8A61-40B9C8842173}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4A9C48-B072-434C-A209-085744D5F307}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP16B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{312EDF22-C040-45FD-B3F8-BC05D97EE313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EFB34AE-8493-4F1B-9C61-642F7D371D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC4EBB42-7698-4860-B3C1-E43CDFA90ABC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6628A8A6-6050-4ED9-9858-42F9A0C50F83}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Menores según si están vacunados de la triple vírica en 2023 (Tasa respuesta: 98,85%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,253 +65,238 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -726,8 +711,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4A9C48-B072-434C-A209-085744D5F307}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F690E9A7-E782-4877-A0E5-3AD8313BAD78}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -844,96 +829,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D4" s="7">
+        <v>53630</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>59301</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>112931</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>603</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1742</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>2345</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -942,151 +931,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54233</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>61043</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>115276</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>78</v>
+        <v>627</v>
       </c>
       <c r="D7" s="7">
-        <v>56193</v>
+        <v>449997</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>67</v>
+        <v>631</v>
       </c>
       <c r="I7" s="7">
-        <v>50113</v>
+        <v>497939</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>145</v>
+        <v>1258</v>
       </c>
       <c r="N7" s="7">
-        <v>106306</v>
+        <v>947937</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>1642</v>
+        <v>4912</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7">
-        <v>652</v>
+        <v>9428</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="N8" s="7">
-        <v>2294</v>
+        <v>14340</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1095,153 +1086,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>81</v>
+        <v>636</v>
       </c>
       <c r="D9" s="7">
-        <v>57835</v>
+        <v>454909</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>68</v>
+        <v>648</v>
       </c>
       <c r="I9" s="7">
-        <v>50765</v>
+        <v>507367</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>149</v>
+        <v>1284</v>
       </c>
       <c r="N9" s="7">
-        <v>108600</v>
+        <v>962277</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>631</v>
+        <v>219</v>
       </c>
       <c r="D10" s="7">
-        <v>475222</v>
+        <v>142609</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>627</v>
+        <v>232</v>
       </c>
       <c r="I10" s="7">
-        <v>439659</v>
+        <v>179941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1258</v>
+        <v>451</v>
       </c>
       <c r="N10" s="7">
-        <v>914881</v>
+        <v>322551</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>9221</v>
+        <v>4864</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>4839</v>
+        <v>2233</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N11" s="7">
-        <v>14060</v>
+        <v>7096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1250,153 +1241,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>648</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>484443</v>
+        <v>147473</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>636</v>
+        <v>237</v>
       </c>
       <c r="I12" s="7">
-        <v>444498</v>
+        <v>182174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1284</v>
+        <v>464</v>
       </c>
       <c r="N12" s="7">
-        <v>928941</v>
+        <v>329647</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>232</v>
+        <v>913</v>
       </c>
       <c r="D13" s="7">
-        <v>171470</v>
+        <v>646237</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>219</v>
+        <v>941</v>
       </c>
       <c r="I13" s="7">
-        <v>144343</v>
+        <v>737181</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>451</v>
+        <v>1854</v>
       </c>
       <c r="N13" s="7">
-        <v>315812</v>
+        <v>1383417</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>2145</v>
+        <v>10378</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>4928</v>
+        <v>13403</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="N14" s="7">
-        <v>7074</v>
+        <v>23782</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,216 +1396,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>237</v>
+        <v>931</v>
       </c>
       <c r="D15" s="7">
-        <v>173615</v>
+        <v>656615</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>227</v>
+        <v>966</v>
       </c>
       <c r="I15" s="7">
-        <v>149271</v>
+        <v>750584</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>464</v>
+        <v>1897</v>
       </c>
       <c r="N15" s="7">
-        <v>322886</v>
+        <v>1407199</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>941</v>
-      </c>
-      <c r="D16" s="7">
-        <v>702885</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="7">
-        <v>914</v>
-      </c>
-      <c r="I16" s="7">
-        <v>635286</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1338171</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>25</v>
-      </c>
-      <c r="D17" s="7">
-        <v>13008</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="7">
-        <v>18</v>
-      </c>
-      <c r="I17" s="7">
-        <v>10419</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="7">
-        <v>43</v>
-      </c>
-      <c r="N17" s="7">
-        <v>23427</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>966</v>
-      </c>
-      <c r="D18" s="7">
-        <v>715893</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="7">
-        <v>932</v>
-      </c>
-      <c r="I18" s="7">
-        <v>645705</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1898</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1361598</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
